--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111591.5357511114</v>
+        <v>102335.7493706456</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12564799.23513171</v>
+        <v>12564799.2351317</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3308635.993435107</v>
+        <v>3308635.993435108</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.50979349205137</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.706151199248223</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="W3" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.5891238419305925</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.284960187439767</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
         <v>14.11143217127993</v>
       </c>
       <c r="S5" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.595923003046366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.60890503121191</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.098450143114382</v>
+        <v>23.50971295904437</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.183833028195926</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="G8" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.22935897549879</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190917</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.99031113423597</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="H9" t="n">
-        <v>17.31716204183243</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.700923269594416</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>21.01808531142689</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.190233140434701</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.289551455639586</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.479784596074308</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>191.255994400369</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>168.458279867845</v>
       </c>
       <c r="X11" t="n">
-        <v>168.4582798678451</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
         <v>92.63376431607153</v>
@@ -1502,13 +1502,13 @@
         <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
-        <v>138.5285367888426</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>23.45066914219004</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>20.86615025861194</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>27.81223218147669</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>26.47880521537898</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>191.255994400369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>191.255994400369</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>85.55513282065151</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>191.255994400369</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>72.68877842043504</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>138.5285367888426</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.64516768239898</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.5916431325628</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>26.47880521537898</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>330.2490701479407</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>227.0190745912805</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>255.6199783641448</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>39.21641784005033</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
@@ -1937,10 +1937,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.10077804644027</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>43.0641386565147</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.70507848721775</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>136.3802280967762</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8539051709984</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>196.5350434830626</v>
       </c>
       <c r="W18" t="n">
         <v>194.556163395115</v>
@@ -1991,7 +1991,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>76.50867458044809</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.8116211299295</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>132.8656432662205</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>87.87530148324387</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.4033974688585</v>
       </c>
       <c r="H20" t="n">
-        <v>275.5104403857142</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>60.20342017356936</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>352.0610985941915</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>82.91146960715132</v>
+        <v>136.3802280967762</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8539051709984</v>
+        <v>129.3851466813758</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>69.60717062411247</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.8116211299295</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3363053356988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>100.9000210656613</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>353.7876329699282</v>
       </c>
       <c r="G23" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>143.7591345281674</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.93802506833836</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>131.6381934813934</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>366.5806146818684</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>146.1511305531078</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T27" t="n">
         <v>135.5372539824022</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>69.51985944820009</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>69.51985944820011</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>384.4134531699139</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>54.73346380561852</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
-        <v>92.70937201392481</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
         <v>91.89163974602977</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>149.7956343871866</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>215.4663430122865</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>350.5636001140161</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>305.1164609420367</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>137.5126276253686</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>29.50834088925743</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>48.14419434032368</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>175.3399221242833</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>391.5618418221654</v>
+        <v>110.9787762396793</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3593,13 +3593,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
-        <v>92.70937201392481</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
         <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>80.71516322325085</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>155.6337801671284</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>152.3949360720036</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>321.8191393618815</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>69.51985944820012</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>85.93802506833823</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>17.91438932893807</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>155.907118572611</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570794</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.55987602270208</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34.73120273434481</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,49 +4333,49 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992286</v>
+        <v>5.219099475992287</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886391</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646102</v>
+        <v>50.92952327646101</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927302</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.87322908120045</v>
+        <v>70.31071236238333</v>
       </c>
       <c r="R2" t="n">
-        <v>72.87322908120045</v>
+        <v>70.31071236238333</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120045</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="T2" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="U2" t="n">
-        <v>36.06856792907901</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="V2" t="n">
-        <v>17.66623735301829</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="W2" t="n">
-        <v>17.66623735301829</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="X2" t="n">
-        <v>17.66623735301829</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.66623735301829</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.457464581624009</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="C3" t="n">
-        <v>1.457464581624009</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="D3" t="n">
-        <v>1.457464581624009</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="E3" t="n">
-        <v>1.457464581624009</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="F3" t="n">
-        <v>1.457464581624009</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="G3" t="n">
         <v>1.457464581624009</v>
@@ -4412,10 +4412,10 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K3" t="n">
-        <v>5.886021080118652</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L3" t="n">
-        <v>19.36817474787378</v>
+        <v>10.63528474396711</v>
       </c>
       <c r="M3" t="n">
         <v>28.67140894156423</v>
@@ -4424,37 +4424,37 @@
         <v>46.70753313916134</v>
       </c>
       <c r="O3" t="n">
-        <v>62.96599962173947</v>
+        <v>62.96599962173948</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="R3" t="n">
-        <v>72.87322908120045</v>
+        <v>59.39794236965287</v>
       </c>
       <c r="S3" t="n">
-        <v>72.87322908120045</v>
+        <v>40.99561179359215</v>
       </c>
       <c r="T3" t="n">
-        <v>72.87322908120045</v>
+        <v>22.59328121753142</v>
       </c>
       <c r="U3" t="n">
-        <v>72.87322908120045</v>
+        <v>22.59328121753142</v>
       </c>
       <c r="V3" t="n">
-        <v>72.87322908120045</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="W3" t="n">
-        <v>56.66445630980617</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="X3" t="n">
-        <v>38.26212573374545</v>
+        <v>4.1909506414707</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85979515768473</v>
+        <v>4.1909506414707</v>
       </c>
     </row>
     <row r="4">
@@ -4500,34 +4500,34 @@
         <v>1.457464581624009</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="T4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="U4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="V4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="W4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="X4" t="n">
         <v>1.457464581624009</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.88077703672355</v>
+        <v>32.13034395439081</v>
       </c>
       <c r="C5" t="n">
-        <v>1.88077703672355</v>
+        <v>8.383159147275279</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88077703672355</v>
+        <v>8.383159147275279</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88077703672355</v>
+        <v>8.383159147275279</v>
       </c>
       <c r="F5" t="n">
-        <v>1.88077703672355</v>
+        <v>8.383159147275279</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88077703672355</v>
+        <v>8.383159147275279</v>
       </c>
       <c r="H5" t="n">
-        <v>1.88077703672355</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88077703672355</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="J5" t="n">
         <v>1.88077703672355</v>
       </c>
       <c r="K5" t="n">
-        <v>8.415911685442897</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L5" t="n">
-        <v>22.51986039522948</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M5" t="n">
-        <v>43.35950445951396</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N5" t="n">
         <v>65.28609961349599</v>
       </c>
       <c r="O5" t="n">
-        <v>83.82378169965438</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P5" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.03885183617751</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R5" t="n">
-        <v>79.78487994599577</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="S5" t="n">
-        <v>56.03769513888024</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="T5" t="n">
-        <v>32.29051033176471</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="U5" t="n">
-        <v>32.29051033176471</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="V5" t="n">
-        <v>32.29051033176471</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="W5" t="n">
-        <v>32.29051033176471</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="X5" t="n">
-        <v>32.29051033176471</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62796184383908</v>
+        <v>55.87752876150634</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.88077703672355</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="C6" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E6" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F6" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G6" t="n">
         <v>1.88077703672355</v>
@@ -4649,49 +4649,49 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K6" t="n">
-        <v>1.88077703672355</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L6" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M6" t="n">
-        <v>39.73034208625465</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N6" t="n">
-        <v>62.8698427925751</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O6" t="n">
-        <v>81.90393668038413</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P6" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R6" t="n">
-        <v>81.30258412788265</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S6" t="n">
-        <v>57.55539932076712</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T6" t="n">
-        <v>33.80821451365159</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U6" t="n">
-        <v>10.06102970653606</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V6" t="n">
-        <v>10.06102970653606</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W6" t="n">
-        <v>10.06102970653606</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="X6" t="n">
-        <v>10.06102970653606</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.88077703672355</v>
+        <v>46.54448222194644</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K7" t="n">
         <v>1.88077703672355</v>
       </c>
       <c r="L7" t="n">
-        <v>2.170301745874835</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M7" t="n">
         <v>3.005035947119205</v>
       </c>
       <c r="N7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V7" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="X7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.096769994497213</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.44997870766058</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="C8" t="n">
-        <v>95.44997870766058</v>
+        <v>27.0506852853715</v>
       </c>
       <c r="D8" t="n">
-        <v>95.44997870766058</v>
+        <v>27.0506852853715</v>
       </c>
       <c r="E8" t="n">
-        <v>95.44997870766058</v>
+        <v>27.0506852853715</v>
       </c>
       <c r="F8" t="n">
-        <v>71.34644873097861</v>
+        <v>2.947155308689494</v>
       </c>
       <c r="G8" t="n">
-        <v>47.24291875429664</v>
+        <v>2.947155308689494</v>
       </c>
       <c r="H8" t="n">
-        <v>23.77891978914635</v>
+        <v>2.947155308689494</v>
       </c>
       <c r="I8" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689494</v>
       </c>
       <c r="J8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172411</v>
+        <v>8.629045391172454</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619894</v>
+        <v>22.96239275619899</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482665</v>
+        <v>44.05728702482676</v>
       </c>
       <c r="N8" t="n">
-        <v>66.24326259831412</v>
+        <v>66.24326259831423</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944871</v>
+        <v>85.02587025944881</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766058</v>
+        <v>75.2577452387355</v>
       </c>
       <c r="V8" t="n">
-        <v>95.44997870766058</v>
+        <v>75.2577452387355</v>
       </c>
       <c r="W8" t="n">
-        <v>95.44997870766058</v>
+        <v>75.2577452387355</v>
       </c>
       <c r="X8" t="n">
-        <v>95.44997870766058</v>
+        <v>51.1542152620535</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.44997870766058</v>
+        <v>51.1542152620535</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.44997870766058</v>
+        <v>50.11605952751722</v>
       </c>
       <c r="C9" t="n">
-        <v>95.44997870766058</v>
+        <v>50.11605952751722</v>
       </c>
       <c r="D9" t="n">
-        <v>95.44997870766058</v>
+        <v>50.11605952751722</v>
       </c>
       <c r="E9" t="n">
-        <v>71.34644873097861</v>
+        <v>26.01252955083521</v>
       </c>
       <c r="F9" t="n">
-        <v>47.24291875429664</v>
+        <v>26.01252955083521</v>
       </c>
       <c r="G9" t="n">
-        <v>23.13938877761467</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="H9" t="n">
-        <v>5.647305907076864</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I9" t="n">
-        <v>5.647305907076864</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J9" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K9" t="n">
-        <v>8.346945923252324</v>
+        <v>8.346945923252338</v>
       </c>
       <c r="L9" t="n">
-        <v>24.53097221925459</v>
+        <v>18.1927565379336</v>
       </c>
       <c r="M9" t="n">
-        <v>46.56245863347765</v>
+        <v>40.22424295215667</v>
       </c>
       <c r="N9" t="n">
-        <v>70.18632836362364</v>
+        <v>63.8481126823027</v>
       </c>
       <c r="O9" t="n">
-        <v>83.06725959038364</v>
+        <v>83.06725959038376</v>
       </c>
       <c r="P9" t="n">
-        <v>95.35069610950775</v>
+        <v>95.35069610950788</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097872</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766058</v>
+        <v>50.11605952751722</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.44997870766058</v>
+        <v>50.11605952751722</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="C10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="D10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="E10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="F10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="G10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="H10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="I10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="J10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="K10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757767</v>
+        <v>2.295468180757777</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329197</v>
+        <v>3.232416129329214</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="O10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="P10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="R10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="S10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="T10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="U10" t="n">
-        <v>4.121356281663011</v>
+        <v>5.423933509581809</v>
       </c>
       <c r="V10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="W10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="X10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.121356281663011</v>
+        <v>1.908999574153214</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="C11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="D11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="E11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="F11" t="n">
-        <v>401.6762258154013</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="G11" t="n">
         <v>208.4883526837154</v>
@@ -5041,22 +5041,22 @@
         <v>15.30047955202952</v>
       </c>
       <c r="J11" t="n">
-        <v>61.47172875552918</v>
+        <v>61.47172875552923</v>
       </c>
       <c r="K11" t="n">
-        <v>138.9154718648985</v>
+        <v>138.9154718648986</v>
       </c>
       <c r="L11" t="n">
-        <v>240.9878195381906</v>
+        <v>240.9878195381908</v>
       </c>
       <c r="M11" t="n">
-        <v>359.7092571452449</v>
+        <v>359.7092571452451</v>
       </c>
       <c r="N11" t="n">
-        <v>481.1014755937833</v>
+        <v>481.1014755937835</v>
       </c>
       <c r="O11" t="n">
-        <v>593.5617252439823</v>
+        <v>593.5617252439826</v>
       </c>
       <c r="P11" t="n">
         <v>683.9375338210159</v>
@@ -5074,19 +5074,19 @@
         <v>765.0239776014761</v>
       </c>
       <c r="U11" t="n">
-        <v>765.0239776014761</v>
+        <v>571.8361044697901</v>
       </c>
       <c r="V11" t="n">
-        <v>765.0239776014761</v>
+        <v>378.6482313381043</v>
       </c>
       <c r="W11" t="n">
-        <v>765.0239776014761</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="X11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="Y11" t="n">
-        <v>594.8640989470871</v>
+        <v>208.4883526837154</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.5685889064408</v>
+        <v>355.9163529505994</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5685889064408</v>
+        <v>355.9163529505994</v>
       </c>
       <c r="D12" t="n">
-        <v>157.5685889064408</v>
+        <v>355.9163529505994</v>
       </c>
       <c r="E12" t="n">
-        <v>157.5685889064408</v>
+        <v>251.2144192235367</v>
       </c>
       <c r="F12" t="n">
         <v>157.5685889064408</v>
@@ -5120,52 +5120,52 @@
         <v>15.63279539966781</v>
       </c>
       <c r="J12" t="n">
-        <v>40.07417499003835</v>
+        <v>40.07417499003836</v>
       </c>
       <c r="K12" t="n">
-        <v>94.54854469344613</v>
+        <v>94.54854469344615</v>
       </c>
       <c r="L12" t="n">
-        <v>175.3234702521545</v>
+        <v>175.3234702521546</v>
       </c>
       <c r="M12" t="n">
-        <v>272.7294895500566</v>
+        <v>272.7294895500567</v>
       </c>
       <c r="N12" t="n">
-        <v>375.0549611369267</v>
+        <v>375.0549611369269</v>
       </c>
       <c r="O12" t="n">
-        <v>465.052060015597</v>
+        <v>465.0520600155971</v>
       </c>
       <c r="P12" t="n">
-        <v>534.1410428855887</v>
+        <v>534.1410428855888</v>
       </c>
       <c r="Q12" t="n">
-        <v>572.2133288600025</v>
+        <v>572.2133288600027</v>
       </c>
       <c r="R12" t="n">
-        <v>578.2486299851295</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="S12" t="n">
-        <v>505.9202818238054</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="T12" t="n">
-        <v>365.9924668855806</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="U12" t="n">
-        <v>181.2561334945116</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="V12" t="n">
-        <v>157.5685889064408</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="W12" t="n">
-        <v>157.5685889064408</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="X12" t="n">
-        <v>157.5685889064408</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.5685889064408</v>
+        <v>484.8433623706621</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="C13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="D13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="E13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I13" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="J13" t="n">
-        <v>23.00527047835667</v>
+        <v>23.00527047835668</v>
       </c>
       <c r="K13" t="n">
         <v>48.48500502844416</v>
       </c>
       <c r="L13" t="n">
-        <v>85.94998501359248</v>
+        <v>85.9499850135925</v>
       </c>
       <c r="M13" t="n">
         <v>125.9810244199253</v>
@@ -5223,28 +5223,28 @@
         <v>235.2346205780376</v>
       </c>
       <c r="R13" t="n">
-        <v>206.4526666012255</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="S13" t="n">
-        <v>43.39364337170295</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T13" t="n">
-        <v>43.39364337170295</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U13" t="n">
-        <v>43.39364337170295</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V13" t="n">
-        <v>43.39364337170295</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="W13" t="n">
-        <v>43.39364337170295</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="X13" t="n">
-        <v>43.39364337170295</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.39364337170295</v>
+        <v>15.30047955202952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.30047955202952</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="C14" t="n">
-        <v>15.30047955202952</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="D14" t="n">
-        <v>15.30047955202952</v>
+        <v>294.9076787651816</v>
       </c>
       <c r="E14" t="n">
-        <v>15.30047955202952</v>
+        <v>294.9076787651816</v>
       </c>
       <c r="F14" t="n">
-        <v>15.30047955202952</v>
+        <v>101.7198056334957</v>
       </c>
       <c r="G14" t="n">
-        <v>15.30047955202952</v>
+        <v>101.7198056334957</v>
       </c>
       <c r="H14" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="I14" t="n">
-        <v>15.30047955202952</v>
+        <v>15.3004795520294</v>
       </c>
       <c r="J14" t="n">
-        <v>61.47172875552951</v>
+        <v>61.47172875552911</v>
       </c>
       <c r="K14" t="n">
-        <v>138.9154718648988</v>
+        <v>138.9154718648985</v>
       </c>
       <c r="L14" t="n">
-        <v>240.9878195381909</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M14" t="n">
-        <v>359.7092571452452</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N14" t="n">
-        <v>481.1014755937836</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O14" t="n">
-        <v>593.5617252439827</v>
+        <v>593.5617252439824</v>
       </c>
       <c r="P14" t="n">
         <v>683.9375338210159</v>
@@ -5314,16 +5314,16 @@
         <v>681.2834250285533</v>
       </c>
       <c r="V14" t="n">
+        <v>681.2834250285533</v>
+      </c>
+      <c r="W14" t="n">
+        <v>681.2834250285533</v>
+      </c>
+      <c r="X14" t="n">
         <v>488.0955518968674</v>
       </c>
-      <c r="W14" t="n">
-        <v>294.9076787651816</v>
-      </c>
-      <c r="X14" t="n">
-        <v>101.7198056334957</v>
-      </c>
       <c r="Y14" t="n">
-        <v>101.7198056334957</v>
+        <v>488.0955518968674</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.30047955202952</v>
+        <v>414.7712837517925</v>
       </c>
       <c r="C15" t="n">
-        <v>15.30047955202952</v>
+        <v>297.2653802692972</v>
       </c>
       <c r="D15" t="n">
-        <v>15.30047955202952</v>
+        <v>193.4254217845823</v>
       </c>
       <c r="E15" t="n">
-        <v>15.30047955202952</v>
+        <v>88.72348805751948</v>
       </c>
       <c r="F15" t="n">
-        <v>15.30047955202952</v>
+        <v>88.72348805751948</v>
       </c>
       <c r="G15" t="n">
         <v>15.30047955202952</v>
@@ -5357,52 +5357,52 @@
         <v>15.63279539966781</v>
       </c>
       <c r="J15" t="n">
-        <v>40.07417499003835</v>
+        <v>40.07417499003836</v>
       </c>
       <c r="K15" t="n">
-        <v>94.54854469344613</v>
+        <v>94.54854469344615</v>
       </c>
       <c r="L15" t="n">
-        <v>175.3234702521545</v>
+        <v>175.3234702521546</v>
       </c>
       <c r="M15" t="n">
-        <v>272.7294895500566</v>
+        <v>272.7294895500567</v>
       </c>
       <c r="N15" t="n">
-        <v>375.0549611369267</v>
+        <v>375.0549611369269</v>
       </c>
       <c r="O15" t="n">
-        <v>465.052060015597</v>
+        <v>465.0520600155971</v>
       </c>
       <c r="P15" t="n">
-        <v>534.1410428855887</v>
+        <v>534.1410428855888</v>
       </c>
       <c r="Q15" t="n">
-        <v>572.2133288600025</v>
+        <v>572.2133288600027</v>
       </c>
       <c r="R15" t="n">
-        <v>578.2486299851295</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="S15" t="n">
-        <v>578.2486299851295</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="T15" t="n">
-        <v>438.3208150469046</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="U15" t="n">
-        <v>253.5844816558356</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="V15" t="n">
-        <v>60.39660852414971</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="W15" t="n">
-        <v>15.30047955202952</v>
+        <v>578.2486299851296</v>
       </c>
       <c r="X15" t="n">
-        <v>15.30047955202952</v>
+        <v>414.7712837517925</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.30047955202952</v>
+        <v>414.7712837517925</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="C16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="D16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="E16" t="n">
-        <v>187.1622537774691</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F16" t="n">
         <v>15.30047955202952</v>
@@ -5436,13 +5436,13 @@
         <v>15.30047955202952</v>
       </c>
       <c r="J16" t="n">
-        <v>23.00527047835667</v>
+        <v>23.00527047835668</v>
       </c>
       <c r="K16" t="n">
         <v>48.48500502844416</v>
       </c>
       <c r="L16" t="n">
-        <v>85.94998501359248</v>
+        <v>85.9499850135925</v>
       </c>
       <c r="M16" t="n">
         <v>125.9810244199253</v>
@@ -5466,22 +5466,22 @@
         <v>235.2346205780376</v>
       </c>
       <c r="T16" t="n">
-        <v>235.2346205780376</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="U16" t="n">
-        <v>235.2346205780376</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="V16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="W16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="X16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="Y16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.9537870079992</v>
+        <v>1547.682915872936</v>
       </c>
       <c r="C17" t="n">
-        <v>373.9537870079992</v>
+        <v>1120.782185886236</v>
       </c>
       <c r="D17" t="n">
-        <v>373.9537870079992</v>
+        <v>1120.782185886236</v>
       </c>
       <c r="E17" t="n">
-        <v>373.9537870079992</v>
+        <v>694.8052460340938</v>
       </c>
       <c r="F17" t="n">
-        <v>40.36886766664491</v>
+        <v>269.681064223494</v>
       </c>
       <c r="G17" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="H17" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I17" t="n">
-        <v>78.38883072061913</v>
+        <v>78.38883072061935</v>
       </c>
       <c r="J17" t="n">
-        <v>208.2614440185939</v>
+        <v>208.2614440185944</v>
       </c>
       <c r="K17" t="n">
-        <v>411.1518345652756</v>
+        <v>411.1518345652764</v>
       </c>
       <c r="L17" t="n">
-        <v>668.8518411359167</v>
+        <v>668.851841135918</v>
       </c>
       <c r="M17" t="n">
-        <v>960.7390355058576</v>
+        <v>960.7390355058587</v>
       </c>
       <c r="N17" t="n">
-        <v>1258.09901370093</v>
+        <v>1258.099013700932</v>
       </c>
       <c r="O17" t="n">
-        <v>1536.720629021587</v>
+        <v>1536.720629021589</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.911318919295</v>
+        <v>1768.911318919298</v>
       </c>
       <c r="Q17" t="n">
-        <v>1935.44878589197</v>
+        <v>1935.448785891973</v>
       </c>
       <c r="R17" t="n">
-        <v>2018.443383332246</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="S17" t="n">
-        <v>2018.443383332246</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="T17" t="n">
-        <v>1805.884914220554</v>
+        <v>1805.884914220557</v>
       </c>
       <c r="U17" t="n">
-        <v>1547.682915872933</v>
+        <v>1547.682915872936</v>
       </c>
       <c r="V17" t="n">
-        <v>1190.193500999182</v>
+        <v>1547.682915872936</v>
       </c>
       <c r="W17" t="n">
-        <v>793.8021512995292</v>
+        <v>1547.682915872936</v>
       </c>
       <c r="X17" t="n">
-        <v>793.8021512995292</v>
+        <v>1547.682915872936</v>
       </c>
       <c r="Y17" t="n">
-        <v>793.8021512995292</v>
+        <v>1547.682915872936</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>518.6993523601703</v>
+        <v>503.5616236340893</v>
       </c>
       <c r="C18" t="n">
-        <v>479.0868090873922</v>
+        <v>386.0557201515941</v>
       </c>
       <c r="D18" t="n">
-        <v>375.2468506026772</v>
+        <v>282.2157616668791</v>
       </c>
       <c r="E18" t="n">
-        <v>270.5449168756144</v>
+        <v>177.5138279398163</v>
       </c>
       <c r="F18" t="n">
-        <v>176.8990865585186</v>
+        <v>83.86799762272042</v>
       </c>
       <c r="G18" t="n">
-        <v>83.86799762272037</v>
+        <v>83.86799762272042</v>
       </c>
       <c r="H18" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I18" t="n">
-        <v>58.8683010337543</v>
+        <v>58.86830103375441</v>
       </c>
       <c r="J18" t="n">
-        <v>133.1616396670455</v>
+        <v>133.1616396670457</v>
       </c>
       <c r="K18" t="n">
-        <v>272.8409476780161</v>
+        <v>272.8409476780165</v>
       </c>
       <c r="L18" t="n">
-        <v>468.1844277337202</v>
+        <v>468.184427733721</v>
       </c>
       <c r="M18" t="n">
-        <v>699.2865462800103</v>
+        <v>699.2865462800114</v>
       </c>
       <c r="N18" t="n">
-        <v>938.8466550372138</v>
+        <v>938.8466550372153</v>
       </c>
       <c r="O18" t="n">
-        <v>1154.386635964132</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P18" t="n">
-        <v>1324.234849733835</v>
+        <v>1324.234849733837</v>
       </c>
       <c r="Q18" t="n">
-        <v>1429.662013196999</v>
+        <v>1429.662013197001</v>
       </c>
       <c r="R18" t="n">
-        <v>1468.458297201824</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="S18" t="n">
-        <v>1406.129935093523</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.372128935164</v>
+        <v>1330.700491043467</v>
       </c>
       <c r="U18" t="n">
-        <v>1083.671214621024</v>
+        <v>1330.700491043467</v>
       </c>
       <c r="V18" t="n">
-        <v>878.6980757602903</v>
+        <v>1132.18024510098</v>
       </c>
       <c r="W18" t="n">
-        <v>682.1766985935075</v>
+        <v>935.6588679341968</v>
       </c>
       <c r="X18" t="n">
-        <v>518.6993523601703</v>
+        <v>772.1815217008597</v>
       </c>
       <c r="Y18" t="n">
-        <v>518.6993523601703</v>
+        <v>632.488633054152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.36886766664491</v>
+        <v>417.1404846917708</v>
       </c>
       <c r="C19" t="n">
-        <v>40.36886766664491</v>
+        <v>417.1404846917708</v>
       </c>
       <c r="D19" t="n">
-        <v>40.36886766664491</v>
+        <v>253.8237118185415</v>
       </c>
       <c r="E19" t="n">
-        <v>40.36886766664491</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="F19" t="n">
-        <v>40.36886766664491</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="G19" t="n">
-        <v>40.36886766664491</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="H19" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I19" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="J19" t="n">
-        <v>79.3491756287583</v>
+        <v>79.34917562875843</v>
       </c>
       <c r="K19" t="n">
-        <v>156.2241921278426</v>
+        <v>156.2241921278428</v>
       </c>
       <c r="L19" t="n">
-        <v>259.4574382314489</v>
+        <v>259.4574382314494</v>
       </c>
       <c r="M19" t="n">
-        <v>368.8318928683414</v>
+        <v>368.831892868342</v>
       </c>
       <c r="N19" t="n">
-        <v>476.8825153976114</v>
+        <v>476.8825153976122</v>
       </c>
       <c r="O19" t="n">
-        <v>573.3838768543137</v>
+        <v>573.3838768543147</v>
       </c>
       <c r="P19" t="n">
-        <v>652.859892396515</v>
+        <v>652.8598923965161</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="R19" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="S19" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="T19" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="U19" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="V19" t="n">
-        <v>417.1404846917696</v>
+        <v>417.1404846917708</v>
       </c>
       <c r="W19" t="n">
-        <v>282.9327642208398</v>
+        <v>417.1404846917708</v>
       </c>
       <c r="X19" t="n">
-        <v>40.36886766664491</v>
+        <v>417.1404846917708</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.36886766664491</v>
+        <v>417.1404846917708</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1660.953968458495</v>
+        <v>442.7965418776132</v>
       </c>
       <c r="C20" t="n">
-        <v>1660.953968458495</v>
+        <v>442.7965418776132</v>
       </c>
       <c r="D20" t="n">
-        <v>1572.19103766734</v>
+        <v>442.7965418776132</v>
       </c>
       <c r="E20" t="n">
-        <v>1146.214097815197</v>
+        <v>442.7965418776132</v>
       </c>
       <c r="F20" t="n">
-        <v>721.0899160045972</v>
+        <v>442.7965418776132</v>
       </c>
       <c r="G20" t="n">
-        <v>318.6622417936289</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="H20" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I20" t="n">
-        <v>78.38883072061918</v>
+        <v>78.38883072061935</v>
       </c>
       <c r="J20" t="n">
-        <v>208.261444018594</v>
+        <v>208.2614440185946</v>
       </c>
       <c r="K20" t="n">
-        <v>411.1518345652756</v>
+        <v>411.1518345652767</v>
       </c>
       <c r="L20" t="n">
-        <v>668.8518411359169</v>
+        <v>668.8518411359182</v>
       </c>
       <c r="M20" t="n">
-        <v>960.7390355058574</v>
+        <v>960.7390355058587</v>
       </c>
       <c r="N20" t="n">
-        <v>1258.09901370093</v>
+        <v>1258.099013700932</v>
       </c>
       <c r="O20" t="n">
-        <v>1536.720629021587</v>
+        <v>1536.720629021589</v>
       </c>
       <c r="P20" t="n">
-        <v>1768.911318919295</v>
+        <v>1768.911318919298</v>
       </c>
       <c r="Q20" t="n">
-        <v>1935.448785891969</v>
+        <v>1935.448785891973</v>
       </c>
       <c r="R20" t="n">
-        <v>2018.443383332246</v>
+        <v>2018.443383332249</v>
       </c>
       <c r="S20" t="n">
-        <v>2018.443383332246</v>
+        <v>1957.631847803391</v>
       </c>
       <c r="T20" t="n">
-        <v>2018.443383332246</v>
+        <v>1957.631847803391</v>
       </c>
       <c r="U20" t="n">
-        <v>2018.443383332246</v>
+        <v>1957.631847803391</v>
       </c>
       <c r="V20" t="n">
-        <v>1660.953968458495</v>
+        <v>1600.14243292964</v>
       </c>
       <c r="W20" t="n">
-        <v>1660.953968458495</v>
+        <v>1203.751083229987</v>
       </c>
       <c r="X20" t="n">
-        <v>1660.953968458495</v>
+        <v>848.1338119227228</v>
       </c>
       <c r="Y20" t="n">
-        <v>1660.953968458495</v>
+        <v>442.7965418776132</v>
       </c>
     </row>
     <row r="21">
@@ -5813,70 +5813,70 @@
         <v>248.9107598784227</v>
       </c>
       <c r="D21" t="n">
-        <v>145.0708013937077</v>
+        <v>145.0708013937078</v>
       </c>
       <c r="E21" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="F21" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="G21" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="H21" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I21" t="n">
-        <v>58.8683010337543</v>
+        <v>58.86830103375441</v>
       </c>
       <c r="J21" t="n">
-        <v>133.1616396670455</v>
+        <v>133.1616396670457</v>
       </c>
       <c r="K21" t="n">
-        <v>272.8409476780161</v>
+        <v>272.8409476780165</v>
       </c>
       <c r="L21" t="n">
-        <v>468.1844277337202</v>
+        <v>468.184427733721</v>
       </c>
       <c r="M21" t="n">
-        <v>699.2865462800103</v>
+        <v>699.2865462800114</v>
       </c>
       <c r="N21" t="n">
-        <v>938.8466550372138</v>
+        <v>938.8466550372153</v>
       </c>
       <c r="O21" t="n">
-        <v>1154.386635964132</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P21" t="n">
-        <v>1324.234849733835</v>
+        <v>1324.234849733837</v>
       </c>
       <c r="Q21" t="n">
-        <v>1429.662013196999</v>
+        <v>1429.662013197001</v>
       </c>
       <c r="R21" t="n">
-        <v>1468.458297201824</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="S21" t="n">
-        <v>1468.458297201824</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="T21" t="n">
-        <v>1384.709338002682</v>
+        <v>1330.700491043467</v>
       </c>
       <c r="U21" t="n">
         <v>1200.008423688542</v>
       </c>
       <c r="V21" t="n">
-        <v>995.0352848278081</v>
+        <v>995.0352848278083</v>
       </c>
       <c r="W21" t="n">
-        <v>798.5139076610253</v>
+        <v>798.5139076610254</v>
       </c>
       <c r="X21" t="n">
-        <v>635.0365614276882</v>
+        <v>635.0365614276883</v>
       </c>
       <c r="Y21" t="n">
-        <v>495.3436727809806</v>
+        <v>495.3436727809807</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.36886766664491</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="C22" t="n">
-        <v>40.36886766664491</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="D22" t="n">
-        <v>40.36886766664491</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="E22" t="n">
-        <v>40.36886766664491</v>
+        <v>348.4039965687811</v>
       </c>
       <c r="F22" t="n">
-        <v>40.36886766664491</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="G22" t="n">
-        <v>40.36886766664491</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="H22" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="I22" t="n">
-        <v>40.36886766664491</v>
+        <v>40.36886766664497</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3491756287583</v>
+        <v>79.34917562875843</v>
       </c>
       <c r="K22" t="n">
-        <v>156.2241921278426</v>
+        <v>156.2241921278428</v>
       </c>
       <c r="L22" t="n">
-        <v>259.4574382314489</v>
+        <v>259.4574382314494</v>
       </c>
       <c r="M22" t="n">
-        <v>368.8318928683414</v>
+        <v>368.831892868342</v>
       </c>
       <c r="N22" t="n">
-        <v>476.8825153976114</v>
+        <v>476.8825153976122</v>
       </c>
       <c r="O22" t="n">
-        <v>573.3838768543137</v>
+        <v>573.3838768543147</v>
       </c>
       <c r="P22" t="n">
-        <v>652.859892396515</v>
+        <v>652.8598923965161</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="R22" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="S22" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="T22" t="n">
-        <v>698.8519520837407</v>
+        <v>698.8519520837419</v>
       </c>
       <c r="U22" t="n">
-        <v>698.8519520837407</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="V22" t="n">
-        <v>417.1404846917696</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="W22" t="n">
-        <v>142.2880808642826</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="X22" t="n">
-        <v>40.36886766664491</v>
+        <v>418.7142699264704</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.36886766664491</v>
+        <v>418.7142699264704</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1151.612330528242</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="C23" t="n">
-        <v>1151.612330528242</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="D23" t="n">
-        <v>1151.612330528242</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.612330528242</v>
+        <v>809.599537043929</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H23" t="n">
         <v>50.20544392206814</v>
@@ -5995,7 +5995,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080623</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.060949105258</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.060949105258</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W23" t="n">
-        <v>1968.669599405605</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="X23" t="n">
-        <v>1556.949600573352</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="Y23" t="n">
-        <v>1151.612330528242</v>
+        <v>1235.576476896071</v>
       </c>
     </row>
     <row r="24">
@@ -6050,16 +6050,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H24" t="n">
         <v>50.20544392206814</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.20544392206814</v>
+        <v>356.776732095524</v>
       </c>
       <c r="C25" t="n">
-        <v>50.20544392206814</v>
+        <v>184.80416897444</v>
       </c>
       <c r="D25" t="n">
-        <v>50.20544392206814</v>
+        <v>184.80416897444</v>
       </c>
       <c r="E25" t="n">
-        <v>50.20544392206814</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206814</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206814</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H25" t="n">
         <v>50.20544392206814</v>
@@ -6174,25 +6174,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U25" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="V25" t="n">
-        <v>880.7705985416225</v>
+        <v>356.776732095524</v>
       </c>
       <c r="W25" t="n">
-        <v>605.9181947141356</v>
+        <v>356.776732095524</v>
       </c>
       <c r="X25" t="n">
-        <v>363.3542981599406</v>
+        <v>356.776732095524</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.0115298496827</v>
+        <v>356.776732095524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1273.366562934515</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="C26" t="n">
-        <v>846.465832947815</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="D26" t="n">
-        <v>846.465832947815</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="E26" t="n">
-        <v>420.4888930956726</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F26" t="n">
-        <v>50.20544392206814</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G26" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H26" t="n">
         <v>50.20544392206814</v>
@@ -6229,13 +6229,13 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L26" t="n">
         <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N26" t="n">
         <v>1562.984812457614</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V26" t="n">
-        <v>2510.272196103407</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W26" t="n">
-        <v>2510.272196103407</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="X26" t="n">
-        <v>2098.552197271154</v>
+        <v>1556.949600573352</v>
       </c>
       <c r="Y26" t="n">
-        <v>1693.214927226045</v>
+        <v>1151.612330528242</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452934</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C27" t="n">
-        <v>486.6718964627981</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
         <v>382.8319379780831</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F27" t="n">
         <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662154</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206814</v>
@@ -6308,7 +6308,7 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L27" t="n">
         <v>583.100038874436</v>
@@ -6332,7 +6332,7 @@
         <v>1817.767364655853</v>
       </c>
       <c r="S27" t="n">
-        <v>1759.362893661492</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T27" t="n">
         <v>1622.456576507551</v>
@@ -6347,10 +6347,10 @@
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120637</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.1048093653561</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="28">
@@ -6369,13 +6369,13 @@
         <v>292.2892983982149</v>
       </c>
       <c r="E28" t="n">
-        <v>222.0672181475077</v>
+        <v>292.2892983982149</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206814</v>
+        <v>120.4275241727753</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206814</v>
+        <v>120.4275241727753</v>
       </c>
       <c r="H28" t="n">
         <v>50.20544392206814</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1288.695212067115</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="C29" t="n">
-        <v>861.7944820804153</v>
+        <v>1149.780769532642</v>
       </c>
       <c r="D29" t="n">
-        <v>438.5018612654155</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E29" t="n">
-        <v>438.5018612654155</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F29" t="n">
-        <v>438.5018612654155</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
@@ -6472,7 +6472,7 @@
         <v>836.741258523081</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N29" t="n">
         <v>1562.984812457614</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U29" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V29" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W29" t="n">
-        <v>2113.880846403755</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="X29" t="n">
-        <v>2113.880846403755</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="Y29" t="n">
-        <v>1708.543576358645</v>
+        <v>1576.681499519342</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662147</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
         <v>75.83346633145928</v>
@@ -6545,13 +6545,13 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L30" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M30" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688301</v>
       </c>
       <c r="N30" t="n">
         <v>1160.072685361481</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6578,7 +6578,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>388.2754239946541</v>
+        <v>351.0123748215865</v>
       </c>
       <c r="C31" t="n">
-        <v>388.2754239946541</v>
+        <v>351.0123748215865</v>
       </c>
       <c r="D31" t="n">
-        <v>388.2754239946541</v>
+        <v>351.0123748215865</v>
       </c>
       <c r="E31" t="n">
-        <v>222.0672181475077</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F31" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G31" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J31" t="n">
         <v>101.4579413382349</v>
@@ -6648,25 +6648,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T31" t="n">
-        <v>663.1278278221412</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U31" t="n">
-        <v>663.1278278221412</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V31" t="n">
-        <v>663.1278278221412</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W31" t="n">
-        <v>388.2754239946541</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X31" t="n">
-        <v>388.2754239946541</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y31" t="n">
-        <v>388.2754239946541</v>
+        <v>502.3210964248053</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.703832979624</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.703832979624</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.411212164625</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E32" t="n">
-        <v>829.4342723124822</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F32" t="n">
-        <v>404.3100905018824</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G32" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H32" t="n">
         <v>50.20544392206814</v>
@@ -6703,10 +6703,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080623</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103407</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W32" t="n">
-        <v>2510.272196103407</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X32" t="n">
-        <v>2098.552197271154</v>
+        <v>1034.686594113639</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.552197271154</v>
+        <v>726.4881487176426</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2181.204583325313</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C34" t="n">
-        <v>2009.232020204229</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D34" t="n">
-        <v>1845.915247330999</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.272196103407</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U34" t="n">
-        <v>2510.272196103407</v>
+        <v>361.7233162526831</v>
       </c>
       <c r="V34" t="n">
-        <v>2510.272196103407</v>
+        <v>80.01184886071201</v>
       </c>
       <c r="W34" t="n">
-        <v>2371.370552037378</v>
+        <v>80.01184886071201</v>
       </c>
       <c r="X34" t="n">
-        <v>2371.370552037378</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="Y34" t="n">
-        <v>2371.370552037378</v>
+        <v>50.20544392206814</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2053.120499700745</v>
+        <v>629.3493240685301</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.219769714045</v>
+        <v>629.3493240685301</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.589270380385</v>
+        <v>629.3493240685301</v>
       </c>
       <c r="E35" t="n">
-        <v>1151.612330528242</v>
+        <v>629.3493240685301</v>
       </c>
       <c r="F35" t="n">
-        <v>726.4881487176426</v>
+        <v>629.3493240685301</v>
       </c>
       <c r="G35" t="n">
-        <v>324.4553010199516</v>
+        <v>227.3164763708392</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6955,34 +6955,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2458.457769745854</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>2458.457769745854</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W35" t="n">
-        <v>2458.457769745854</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X35" t="n">
-        <v>2458.457769745854</v>
+        <v>1034.68659411364</v>
       </c>
       <c r="Y35" t="n">
-        <v>2053.120499700745</v>
+        <v>629.3493240685301</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
         <v>75.83346633145928</v>
@@ -7019,13 +7019,13 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K36" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L36" t="n">
-        <v>583.1000388744359</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M36" t="n">
-        <v>866.6631241688299</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N36" t="n">
         <v>1160.072685361481</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
         <v>101.4579413382349</v>
@@ -7134,13 +7134,13 @@
         <v>325.0578477495551</v>
       </c>
       <c r="W37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1296.823577526392</v>
+        <v>1010.722020527142</v>
       </c>
       <c r="C38" t="n">
-        <v>1296.823577526392</v>
+        <v>1010.722020527142</v>
       </c>
       <c r="D38" t="n">
-        <v>1296.823577526392</v>
+        <v>587.429399712142</v>
       </c>
       <c r="E38" t="n">
-        <v>870.8466376742491</v>
+        <v>587.429399712142</v>
       </c>
       <c r="F38" t="n">
-        <v>445.7224558636493</v>
+        <v>162.3052179015422</v>
       </c>
       <c r="G38" t="n">
         <v>50.20544392206814</v>
@@ -7180,7 +7180,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080623</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V38" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="W38" t="n">
-        <v>2113.880846403754</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="X38" t="n">
-        <v>1702.160847571501</v>
+        <v>1835.907654863781</v>
       </c>
       <c r="Y38" t="n">
-        <v>1296.823577526392</v>
+        <v>1430.570384818672</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>278.1300042510202</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H39" t="n">
         <v>50.20544392206814</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>880.7705985416225</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C40" t="n">
-        <v>708.7980354205384</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D40" t="n">
-        <v>545.4812625473091</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E40" t="n">
-        <v>379.2730567001627</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F40" t="n">
-        <v>207.4112824747231</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G40" t="n">
         <v>50.20544392206814</v>
@@ -7365,19 +7365,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7705985416225</v>
+        <v>358.0786801345997</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.7705985416225</v>
+        <v>131.7359118243417</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1756.391431530003</v>
+        <v>800.3994634719422</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.490701543303</v>
+        <v>800.3994634719422</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.556422682694</v>
+        <v>800.3994634719422</v>
       </c>
       <c r="E41" t="n">
-        <v>749.5794828305513</v>
+        <v>800.3994634719422</v>
       </c>
       <c r="F41" t="n">
-        <v>324.4553010199516</v>
+        <v>375.2752816613424</v>
       </c>
       <c r="G41" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
@@ -7417,46 +7417,46 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U41" t="n">
-        <v>2510.272196103407</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V41" t="n">
-        <v>2152.782781229656</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W41" t="n">
-        <v>1756.391431530003</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X41" t="n">
-        <v>1756.391431530003</v>
+        <v>1220.247827763472</v>
       </c>
       <c r="Y41" t="n">
-        <v>1756.391431530003</v>
+        <v>1220.247827763472</v>
       </c>
     </row>
     <row r="42">
@@ -7475,19 +7475,19 @@
         <v>382.831937978083</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J42" t="n">
         <v>169.6881981570805</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>464.2618615192989</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C43" t="n">
-        <v>292.2892983982149</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D43" t="n">
-        <v>292.2892983982149</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E43" t="n">
-        <v>292.2892983982149</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
-        <v>120.4275241727753</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7605,16 +7605,16 @@
         <v>880.7705985416225</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416225</v>
+        <v>793.9645126140081</v>
       </c>
       <c r="W43" t="n">
-        <v>880.7705985416225</v>
+        <v>519.112108786521</v>
       </c>
       <c r="X43" t="n">
-        <v>880.7705985416225</v>
+        <v>276.5482122323261</v>
       </c>
       <c r="Y43" t="n">
-        <v>654.4278302313645</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1887.722081221334</v>
+        <v>470.3336343762622</v>
       </c>
       <c r="C44" t="n">
-        <v>1460.821351234634</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="D44" t="n">
-        <v>1460.821351234634</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E44" t="n">
-        <v>1034.844411382491</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F44" t="n">
-        <v>609.7202295718914</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6873818742005</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
@@ -7672,28 +7672,28 @@
         <v>2402.969627965676</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2299.442080053586</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.442080053586</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>2299.442080053586</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>2299.442080053586</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="X44" t="n">
-        <v>1887.722081221334</v>
+        <v>875.6709044213719</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.722081221334</v>
+        <v>470.3336343762622</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>91.66433580662161</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J45" t="n">
         <v>169.6881981570805</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.5921968678834</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="C46" t="n">
-        <v>551.5921968678834</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="D46" t="n">
-        <v>388.2754239946541</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="E46" t="n">
-        <v>222.0672181475077</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206813</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7836,22 +7836,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U46" t="n">
-        <v>600.6425766887946</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V46" t="n">
-        <v>600.6425766887946</v>
+        <v>360.1398707135398</v>
       </c>
       <c r="W46" t="n">
-        <v>600.6425766887946</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="X46" t="n">
-        <v>600.6425766887946</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="Y46" t="n">
-        <v>600.6425766887946</v>
+        <v>85.28746688605281</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>399.6031956049344</v>
+        <v>397.4315733783146</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22567,10 +22567,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>22.55690342461459</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788004</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
-        <v>96.23601616822083</v>
+        <v>82.72622267616946</v>
       </c>
       <c r="T2" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U2" t="n">
-        <v>237.5281706080333</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
-        <v>335.6962134547129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>389.3844915736301</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>383.0655900743585</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.419432055562</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
@@ -22640,7 +22640,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>92.94681813455406</v>
+        <v>90.24066693530584</v>
       </c>
       <c r="H3" t="n">
         <v>51.2351047706663</v>
@@ -22649,7 +22649,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784962</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.50419080107098</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R3" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.41990205371728</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T3" t="n">
-        <v>139.7903633642173</v>
+        <v>121.5720560939171</v>
       </c>
       <c r="U3" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W3" t="n">
-        <v>178.5094783514346</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>143.6242655007036</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.0776524899404</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -22731,22 +22731,22 @@
         <v>10.77286693432814</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277748</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163518</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544557</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.189895604189332</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936622</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22770,7 +22770,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>239.5491337467223</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -22786,7 +22786,7 @@
         <v>392.1401676895704</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22801,13 +22801,13 @@
         <v>399.9626175572692</v>
       </c>
       <c r="H5" t="n">
-        <v>291.4788031161503</v>
+        <v>286.1938429287106</v>
       </c>
       <c r="I5" t="n">
         <v>21.70782937363144</v>
       </c>
       <c r="J5" t="n">
-        <v>1.152398102006444</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1585647136001427</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.22443497918414</v>
+        <v>95.73414793822852</v>
       </c>
       <c r="T5" t="n">
-        <v>193.7486573985481</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U5" t="n">
         <v>255.7447159712177</v>
@@ -22846,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>368.9177232436122</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>394.6879743416122</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>95.62348927334398</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -22877,7 +22877,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>92.93503434185737</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H6" t="n">
         <v>51.12129814120099</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S6" t="n">
-        <v>53.69131031366219</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T6" t="n">
-        <v>116.233153451277</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U6" t="n">
-        <v>159.3990774945472</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -22928,10 +22928,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>138.3328598119593</v>
       </c>
       <c r="Y6" t="n">
-        <v>130.1975096171261</v>
+        <v>114.7862468011961</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>10.07441202240545</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4236456719219941</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>268.9200467610162</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -23023,7 +23023,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099177</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23035,16 +23035,16 @@
         <v>397.0104453155786</v>
       </c>
       <c r="G8" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H8" t="n">
-        <v>268.2344064550301</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.6512210128432</v>
       </c>
       <c r="J8" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>217.2519426784705</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7445985036381</v>
+        <v>235.7542873694021</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>383.740304167015</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23108,22 +23108,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>79.79241971287699</v>
+        <v>79.79241971287696</v>
       </c>
       <c r="F9" t="n">
-        <v>68.84687733700973</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>69.07175403124202</v>
+        <v>69.07175403124199</v>
       </c>
       <c r="H9" t="n">
-        <v>33.7965485317902</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
         <v>10.00995232957613</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.700923269594409</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>12.56012682656194</v>
       </c>
       <c r="S9" t="n">
-        <v>77.18643047130132</v>
+        <v>53.32393579438614</v>
       </c>
       <c r="T9" t="n">
         <v>139.7396997551877</v>
@@ -23165,7 +23165,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>161.8425727710037</v>
+        <v>140.8244874595768</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -23202,10 +23202,10 @@
         <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>10.02784554495552</v>
+        <v>10.02784554495551</v>
       </c>
       <c r="K10" t="n">
-        <v>1.340722532576342</v>
+        <v>3.530955673011039</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,16 +23217,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.289551455639579</v>
       </c>
       <c r="P10" t="n">
-        <v>4.232292945534102</v>
+        <v>4.232292945534095</v>
       </c>
       <c r="Q10" t="n">
         <v>12.05447673506464</v>
       </c>
       <c r="R10" t="n">
-        <v>39.82119477246847</v>
+        <v>39.82119477246846</v>
       </c>
       <c r="S10" t="n">
         <v>165.8186421891014</v>
@@ -23238,7 +23238,7 @@
         <v>277.3744191795909</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>275.4145681219771</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -23269,10 +23269,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>229.6169455921247</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>208.1435512582262</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H11" t="n">
         <v>94.45624863348567</v>
@@ -23314,16 +23314,16 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6996702193238</v>
+        <v>64.44367581895474</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>162.658526324644</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>223.9691563348116</v>
       </c>
       <c r="X11" t="n">
-        <v>239.1445189760851</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
@@ -23345,10 +23345,10 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
-        <v>179.4727383299364</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
         <v>194.556163395115</v>
@@ -23405,7 +23405,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>117.4298095016286</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>58.87027619575086</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
         <v>239.1884404287796</v>
@@ -23475,7 +23475,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>87.63835831768236</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>197.6005354117764</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.0947478279632</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>227.8037002064807</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>229.6169455921247</v>
       </c>
       <c r="G14" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H14" t="n">
-        <v>285.7122430338547</v>
+        <v>200.1571102132032</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V14" t="n">
-        <v>162.658526324644</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>201.1714418022875</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>216.3468044435612</v>
@@ -23576,19 +23576,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>92.63376431607153</v>
+        <v>19.94498589563649</v>
       </c>
       <c r="H15" t="n">
         <v>48.21166394479565</v>
@@ -23627,19 +23627,19 @@
         <v>71.60506467971084</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V15" t="n">
-        <v>11.66741307175738</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>149.910995712716</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>138.2959597602405</v>
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>116.9544806561122</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.1924286780001</v>
@@ -23706,13 +23706,13 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T16" t="n">
-        <v>239.1884404287796</v>
+        <v>47.9324460284106</v>
       </c>
       <c r="U16" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>252.4155475026724</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>90.62386984455304</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.4033974688585</v>
+        <v>171.384322877578</v>
       </c>
       <c r="H17" t="n">
         <v>275.5104403857142</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.20342017356942</v>
+        <v>60.20342017356936</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>77.11442660761993</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.10077804644027</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>61.70507848721772</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.8539051709984</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>6.388363989063834</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,10 +23895,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>88.03744920822689</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23907,10 +23907,10 @@
         <v>163.7455908937104</v>
       </c>
       <c r="H19" t="n">
-        <v>134.8116211299295</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>73.24487755513483</v>
+        <v>73.24487755513481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.402682790710642</v>
+        <v>8.402682790710593</v>
       </c>
       <c r="S19" t="n">
-        <v>153.6412690655612</v>
+        <v>153.6412690655611</v>
       </c>
       <c r="T19" t="n">
-        <v>237.2792244413602</v>
+        <v>237.2792244413601</v>
       </c>
       <c r="U19" t="n">
         <v>277.3363053356988</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.2382365229916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23974,19 +23974,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>331.1843931236058</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>275.5104403857142</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.20342017356942</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.4328844205746</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>55.54170024973865</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>92.10077804644027</v>
       </c>
       <c r="H21" t="n">
-        <v>43.0641386565147</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.70507848721775</v>
+        <v>61.70507848721772</v>
       </c>
       <c r="T21" t="n">
-        <v>53.46875848962485</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>53.46875848962259</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>94.93895316456251</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7455908937104</v>
       </c>
       <c r="H22" t="n">
-        <v>134.8116211299295</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>73.24487755513483</v>
+        <v>73.24487755513481</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.402682790710642</v>
+        <v>8.402682790710593</v>
       </c>
       <c r="S22" t="n">
-        <v>153.6412690655612</v>
+        <v>153.6412690655611</v>
       </c>
       <c r="T22" t="n">
-        <v>237.2792244413602</v>
+        <v>237.2792244413601</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3363053356988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>139.2382365229916</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>67.08530702256553</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>111.8295735761259</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.3262839566066</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24381,7 +24381,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>67.97209018366931</v>
@@ -24414,25 +24414,25 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>147.256159236658</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>54.29232531062536</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>208.7218148893222</v>
@@ -24502,13 +24502,13 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>261.4516682908225</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>95.02626434047488</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>63.73287835364802</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>13.59906605080018</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.6939723970381</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>38.46867463775837</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24888,10 +24888,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>21.063724819464</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
@@ -24900,13 +24900,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>47.44891910669789</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>96.16743640262183</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25128,19 +25128,19 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>134.5912521638435</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>210.6299166993955</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>370.915500266526</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>96.16743640262135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>6.065471068204278</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.450677398548652</v>
+        <v>287.0337429810347</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.5887081042933</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>107.5491458016941</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>7.936476200928743</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
@@ -25605,7 +25605,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25614,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>266.664758534846</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>76.19337985883254</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,10 +25797,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>94.05039691985699</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
         <v>133.2527378018481</v>
@@ -25845,13 +25845,13 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>192.9563276497132</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>404.7173333578948</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>115.6002399542936</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.7044330022429</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>128.8390536337123</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -26076,16 +26076,16 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62564.33347904025</v>
+        <v>62564.33347904026</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62852.58466827733</v>
+        <v>62852.58466827732</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>168012.8014241289</v>
+        <v>168012.8014241288</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353616.5859684294</v>
+        <v>353616.5859684298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353616.5859684293</v>
+        <v>353616.5859684298</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426445.591631571</v>
+        <v>426445.5916315711</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426445.5916315711</v>
+        <v>426445.5916315709</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426445.5916315711</v>
+        <v>426445.5916315709</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426445.5916315709</v>
+        <v>426445.5916315711</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426445.5916315709</v>
+        <v>426445.591631571</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426445.5916315709</v>
+        <v>426445.5916315711</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>23263.9926633777</v>
       </c>
       <c r="C2" t="n">
-        <v>25025.73339161612</v>
+        <v>25025.73339161611</v>
       </c>
       <c r="D2" t="n">
-        <v>25141.03386731094</v>
+        <v>25141.03386731095</v>
       </c>
       <c r="E2" t="n">
-        <v>67205.12056965157</v>
+        <v>67205.12056965155</v>
       </c>
       <c r="F2" t="n">
         <v>67205.12056965157</v>
       </c>
       <c r="G2" t="n">
-        <v>141446.6343873717</v>
+        <v>141446.6343873719</v>
       </c>
       <c r="H2" t="n">
-        <v>141446.6343873718</v>
+        <v>141446.6343873719</v>
       </c>
       <c r="I2" t="n">
         <v>170578.2366526284</v>
       </c>
       <c r="J2" t="n">
-        <v>170578.2366526285</v>
+        <v>170578.2366526284</v>
       </c>
       <c r="K2" t="n">
         <v>170578.2366526285</v>
       </c>
       <c r="L2" t="n">
-        <v>170578.2366526284</v>
+        <v>170578.2366526285</v>
       </c>
       <c r="M2" t="n">
         <v>170578.2366526284</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80658.96448328666</v>
+        <v>80658.96448328669</v>
       </c>
       <c r="C3" t="n">
-        <v>6698.167324106133</v>
+        <v>6698.167324106118</v>
       </c>
       <c r="D3" t="n">
-        <v>422.3904454243239</v>
+        <v>422.3904454243605</v>
       </c>
       <c r="E3" t="n">
-        <v>162214.5188946643</v>
+        <v>162214.5188946642</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278540.8160188837</v>
+        <v>278540.8160188843</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105887.4135203394</v>
+        <v>105887.4135203387</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430403</v>
+        <v>4766.710787430404</v>
       </c>
       <c r="K3" t="n">
-        <v>1361.838499300763</v>
+        <v>1361.838499300732</v>
       </c>
       <c r="L3" t="n">
-        <v>89.2858777576012</v>
+        <v>89.28587775763987</v>
       </c>
       <c r="M3" t="n">
-        <v>41715.1297050836</v>
+        <v>41715.12970508361</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>75409.15835212883</v>
+        <v>75409.15835212903</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.22273493796323</v>
+        <v>13.22273493796324</v>
       </c>
       <c r="C4" t="n">
         <v>17.15222569169689</v>
       </c>
       <c r="D4" t="n">
-        <v>17.41872404354271</v>
+        <v>17.41872404354273</v>
       </c>
       <c r="E4" t="n">
         <v>134.583956678369</v>
@@ -26432,34 +26432,34 @@
         <v>134.583956678369</v>
       </c>
       <c r="G4" t="n">
-        <v>354.2565413413388</v>
+        <v>354.2565413413395</v>
       </c>
       <c r="H4" t="n">
-        <v>354.2565413413388</v>
+        <v>354.2565413413395</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.453791853964</v>
+        <v>440.4537918539642</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>16487.83241934473</v>
       </c>
       <c r="G5" t="n">
-        <v>40941.6699823469</v>
+        <v>40941.66998234695</v>
       </c>
       <c r="H5" t="n">
-        <v>40941.6699823469</v>
+        <v>40941.66998234695</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659396</v>
@@ -26496,22 +26496,22 @@
         <v>50537.10295659396</v>
       </c>
       <c r="K5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="L5" t="n">
         <v>50537.10295659396</v>
       </c>
       <c r="M5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
         <v>50537.10295659396</v>
       </c>
       <c r="O5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93830.10768550186</v>
+        <v>-95169.89439221291</v>
       </c>
       <c r="C6" t="n">
-        <v>-18552.64652735919</v>
+        <v>-19883.62453042901</v>
       </c>
       <c r="D6" t="n">
-        <v>-12191.24726624782</v>
+        <v>-13521.64876693921</v>
       </c>
       <c r="E6" t="n">
-        <v>-111631.8147010358</v>
+        <v>-112751.8957682154</v>
       </c>
       <c r="F6" t="n">
-        <v>50582.70419362847</v>
+        <v>49462.62312644882</v>
       </c>
       <c r="G6" t="n">
-        <v>-178390.1081552001</v>
+        <v>-179138.9816532917</v>
       </c>
       <c r="H6" t="n">
-        <v>100150.7078636835</v>
+        <v>99401.83436559254</v>
       </c>
       <c r="I6" t="n">
-        <v>13713.26638384112</v>
+        <v>13110.05089707704</v>
       </c>
       <c r="J6" t="n">
-        <v>114833.9691167502</v>
+        <v>114230.7536299853</v>
       </c>
       <c r="K6" t="n">
-        <v>118238.8414048798</v>
+        <v>117635.625918115</v>
       </c>
       <c r="L6" t="n">
-        <v>119511.3940264229</v>
+        <v>118908.1785396581</v>
       </c>
       <c r="M6" t="n">
-        <v>77885.55019909691</v>
+        <v>77282.3347123321</v>
       </c>
       <c r="N6" t="n">
-        <v>119600.6799041805</v>
+        <v>118997.4644174157</v>
       </c>
       <c r="O6" t="n">
-        <v>44191.52155205166</v>
+        <v>43588.30606528668</v>
       </c>
       <c r="P6" t="n">
-        <v>119600.6799041805</v>
+        <v>118997.4644174157</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
         <v>82.84723950768694</v>
       </c>
       <c r="D3" t="n">
-        <v>83.21249026304839</v>
+        <v>83.21249026304842</v>
       </c>
       <c r="E3" t="n">
         <v>222.9113743028576</v>
@@ -26752,10 +26752,10 @@
         <v>222.9113743028576</v>
       </c>
       <c r="G3" t="n">
-        <v>470.7032364998514</v>
+        <v>470.703236499852</v>
       </c>
       <c r="H3" t="n">
-        <v>470.7032364998514</v>
+        <v>470.703236499852</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="E4" t="n">
         <v>191.255994400369</v>
@@ -26804,10 +26804,10 @@
         <v>191.255994400369</v>
       </c>
       <c r="G4" t="n">
-        <v>504.6108458330614</v>
+        <v>504.6108458330622</v>
       </c>
       <c r="H4" t="n">
-        <v>504.6108458330614</v>
+        <v>504.6108458330622</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258518</v>
@@ -26816,22 +26816,22 @@
         <v>627.5680490258518</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="L4" t="n">
         <v>627.5680490258518</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
         <v>627.5680490258518</v>
       </c>
       <c r="O4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
-        <v>5.478429937930315</v>
+        <v>5.478429937930301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3652507553614583</v>
+        <v>0.3652507553614868</v>
       </c>
       <c r="E3" t="n">
         <v>139.6988840398092</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>247.7918621969938</v>
+        <v>247.7918621969944</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97.2309642259363</v>
+        <v>97.23096422593568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,37 +27011,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>5.291405688744266</v>
+        <v>5.291405688744259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3527817178707657</v>
+        <v>0.3527817178708048</v>
       </c>
       <c r="E4" t="n">
-        <v>167.3934997234539</v>
+        <v>167.3934997234538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>313.3548514326924</v>
+        <v>313.3548514326931</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.9572031927904</v>
+        <v>122.9572031927896</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="K4" t="n">
-        <v>5.29140568874438</v>
+        <v>5.291405688744259</v>
       </c>
       <c r="L4" t="n">
-        <v>0.352781717870652</v>
+        <v>0.3527817178708048</v>
       </c>
       <c r="M4" t="n">
         <v>167.3934997234539</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>313.3548514326923</v>
+        <v>313.3548514326931</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744266</v>
+        <v>5.291405688744259</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178707657</v>
+        <v>0.3527817178708048</v>
       </c>
       <c r="M4" t="n">
-        <v>167.3934997234539</v>
+        <v>167.3934997234538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>313.3548514326924</v>
+        <v>313.3548514326931</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H2" t="n">
-        <v>3.185339983944802</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I2" t="n">
         <v>11.99099911934892</v>
@@ -31056,19 +31056,19 @@
         <v>39.56423200124193</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624872</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850463</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N2" t="n">
-        <v>55.49793010474612</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O2" t="n">
-        <v>52.4051216618948</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P2" t="n">
-        <v>44.72655890308729</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q2" t="n">
         <v>33.58778305296907</v>
@@ -31077,7 +31077,7 @@
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370168</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
@@ -31126,28 +31126,28 @@
         <v>1.607227534647209</v>
       </c>
       <c r="I3" t="n">
-        <v>5.729671274741411</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J3" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K3" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236606</v>
+        <v>31.78561213073774</v>
       </c>
       <c r="M3" t="n">
-        <v>32.49398676858095</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384177</v>
+        <v>39.56133548384178</v>
       </c>
       <c r="O3" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913268</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q3" t="n">
         <v>21.24284748790752</v>
@@ -31156,10 +31156,10 @@
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640746</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31202,22 +31202,22 @@
         <v>0.1395175254536595</v>
       </c>
       <c r="H4" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733688</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573723</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L4" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M4" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N4" t="n">
         <v>21.34998641783138</v>
@@ -31226,22 +31226,22 @@
         <v>19.72016805230453</v>
       </c>
       <c r="P4" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q4" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852723</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S4" t="n">
-        <v>2.431409966315137</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>42.36574690462687</v>
       </c>
       <c r="L5" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M5" t="n">
         <v>58.48140841891108</v>
@@ -31369,7 +31369,7 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L6" t="n">
         <v>38.69200558328342</v>
@@ -31378,7 +31378,7 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N6" t="n">
-        <v>44.71626125022898</v>
+        <v>38.34014775380277</v>
       </c>
       <c r="O6" t="n">
         <v>42.3982471846556</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3345225739218023</v>
+        <v>0.3345225739218025</v>
       </c>
       <c r="H8" t="n">
-        <v>3.425929310176659</v>
+        <v>3.42592931017666</v>
       </c>
       <c r="I8" t="n">
         <v>12.8966815311203</v>
       </c>
       <c r="J8" t="n">
-        <v>28.3921853083956</v>
+        <v>28.39218530839561</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5525258625055</v>
+        <v>42.55252586250551</v>
       </c>
       <c r="L8" t="n">
-        <v>52.79017108416487</v>
+        <v>52.79017108416488</v>
       </c>
       <c r="M8" t="n">
-        <v>58.73923690814672</v>
+        <v>58.73923690814674</v>
       </c>
       <c r="N8" t="n">
-        <v>59.68969917130205</v>
+        <v>59.68969917130207</v>
       </c>
       <c r="O8" t="n">
-        <v>56.36329032686712</v>
+        <v>56.36329032686714</v>
       </c>
       <c r="P8" t="n">
-        <v>48.10476428317261</v>
+        <v>48.10476428317263</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459806</v>
+        <v>36.12467460459807</v>
       </c>
       <c r="R8" t="n">
         <v>21.01345363411544</v>
       </c>
       <c r="S8" t="n">
-        <v>7.622933153243078</v>
+        <v>7.622933153243081</v>
       </c>
       <c r="T8" t="n">
-        <v>1.46437256734269</v>
+        <v>1.464372567342691</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02676180591374418</v>
+        <v>0.02676180591374419</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1789853564148588</v>
+        <v>0.1789853564148589</v>
       </c>
       <c r="H9" t="n">
         <v>1.728621731690874</v>
       </c>
       <c r="I9" t="n">
-        <v>6.162434420423867</v>
+        <v>6.16243442042387</v>
       </c>
       <c r="J9" t="n">
-        <v>16.91019106373892</v>
+        <v>16.91019106373893</v>
       </c>
       <c r="K9" t="n">
-        <v>28.90220994353446</v>
+        <v>28.90220994353447</v>
       </c>
       <c r="L9" t="n">
-        <v>38.86258802332275</v>
+        <v>32.46034996138235</v>
       </c>
       <c r="M9" t="n">
-        <v>45.35080719336137</v>
+        <v>45.35080719336138</v>
       </c>
       <c r="N9" t="n">
-        <v>45.20552289045681</v>
+        <v>45.20552289045685</v>
       </c>
       <c r="O9" t="n">
-        <v>36.18293136541413</v>
+        <v>42.5851694273546</v>
       </c>
       <c r="P9" t="n">
-        <v>34.17835284030756</v>
+        <v>34.17835284030757</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.84732374165812</v>
+        <v>22.84732374165813</v>
       </c>
       <c r="R9" t="n">
-        <v>11.1127925675822</v>
+        <v>11.11279256758221</v>
       </c>
       <c r="S9" t="n">
-        <v>3.324574493056696</v>
+        <v>3.324574493056697</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7214365901107683</v>
+        <v>0.7214365901107687</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0117753523957144</v>
+        <v>0.01177535239571441</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1500553103104151</v>
+        <v>0.1500553103104152</v>
       </c>
       <c r="H10" t="n">
-        <v>1.334128122578055</v>
+        <v>1.334128122578056</v>
       </c>
       <c r="I10" t="n">
-        <v>4.512572422789576</v>
+        <v>4.512572422789578</v>
       </c>
       <c r="J10" t="n">
         <v>10.60891043894635</v>
       </c>
       <c r="K10" t="n">
-        <v>17.43369877970095</v>
+        <v>17.43369877970096</v>
       </c>
       <c r="L10" t="n">
-        <v>22.30913222560481</v>
+        <v>22.30913222560482</v>
       </c>
       <c r="M10" t="n">
-        <v>23.52185196074989</v>
+        <v>23.5218519607499</v>
       </c>
       <c r="N10" t="n">
-        <v>22.96255489504745</v>
+        <v>22.96255489504746</v>
       </c>
       <c r="O10" t="n">
         <v>21.20963604278487</v>
       </c>
       <c r="P10" t="n">
-        <v>18.14850771245238</v>
+        <v>18.14850771245239</v>
       </c>
       <c r="Q10" t="n">
         <v>12.56508602972031</v>
       </c>
       <c r="R10" t="n">
-        <v>6.747032407230118</v>
+        <v>6.747032407230121</v>
       </c>
       <c r="S10" t="n">
-        <v>2.615054816955142</v>
+        <v>2.615054816955143</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6411454167808645</v>
+        <v>0.6411454167808647</v>
       </c>
       <c r="U10" t="n">
-        <v>0.008184835107840835</v>
+        <v>0.008184835107840837</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8961261278506831</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H11" t="n">
         <v>9.177451706850812</v>
@@ -31773,7 +31773,7 @@
         <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8980253077171</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O11" t="n">
         <v>150.9871711239019</v>
@@ -31782,13 +31782,13 @@
         <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.77154038893553</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R11" t="n">
         <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>20.42047413839746</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T11" t="n">
         <v>3.922792124666368</v>
@@ -31834,7 +31834,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>4.630668360517854</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I12" t="n">
         <v>16.50805932337201</v>
@@ -31858,7 +31858,7 @@
         <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>91.55769258865864</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q12" t="n">
         <v>61.20389280858839</v>
@@ -31870,7 +31870,7 @@
         <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>1.932599556455906</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U12" t="n">
         <v>0.03154406240134779</v>
@@ -31922,22 +31922,22 @@
         <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>46.70176005886097</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L13" t="n">
-        <v>59.76217402211366</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M13" t="n">
         <v>63.01083323121595</v>
       </c>
       <c r="N13" t="n">
-        <v>61.51257645311482</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O13" t="n">
-        <v>56.81682045345624</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P13" t="n">
-        <v>48.61660530697075</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q13" t="n">
         <v>33.6596175197315</v>
@@ -31946,13 +31946,13 @@
         <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>7.005264008829145</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T13" t="n">
         <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02192570894782208</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8961261278506831</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H14" t="n">
         <v>9.177451706850812</v>
@@ -32010,7 +32010,7 @@
         <v>157.3519069469614</v>
       </c>
       <c r="N14" t="n">
-        <v>159.8980253077171</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O14" t="n">
         <v>150.9871711239019</v>
@@ -32019,13 +32019,13 @@
         <v>128.8640573425882</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.77154038893553</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R14" t="n">
         <v>56.29128287860053</v>
       </c>
       <c r="S14" t="n">
-        <v>20.42047413839746</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T14" t="n">
         <v>3.922792124666368</v>
@@ -32071,7 +32071,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H15" t="n">
-        <v>4.630668360517854</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I15" t="n">
         <v>16.50805932337201</v>
@@ -32095,7 +32095,7 @@
         <v>114.0780502057275</v>
       </c>
       <c r="P15" t="n">
-        <v>91.55769258865864</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q15" t="n">
         <v>61.20389280858839</v>
@@ -32107,7 +32107,7 @@
         <v>8.905940284647183</v>
       </c>
       <c r="T15" t="n">
-        <v>1.932599556455906</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U15" t="n">
         <v>0.03154406240134779</v>
@@ -32159,22 +32159,22 @@
         <v>28.41937308120202</v>
       </c>
       <c r="K16" t="n">
-        <v>46.70176005886097</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L16" t="n">
-        <v>59.76217402211366</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M16" t="n">
         <v>63.01083323121595</v>
       </c>
       <c r="N16" t="n">
-        <v>61.51257645311482</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O16" t="n">
-        <v>56.81682045345624</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P16" t="n">
-        <v>48.61660530697075</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q16" t="n">
         <v>33.6596175197315</v>
@@ -32183,13 +32183,13 @@
         <v>18.07409274265465</v>
       </c>
       <c r="S16" t="n">
-        <v>7.005264008829145</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T16" t="n">
         <v>1.717513867579394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02192570894782208</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.892274317587341</v>
+        <v>1.892274317587344</v>
       </c>
       <c r="H17" t="n">
-        <v>19.37925435499136</v>
+        <v>19.37925435499139</v>
       </c>
       <c r="I17" t="n">
-        <v>72.95190562878604</v>
+        <v>72.95190562878614</v>
       </c>
       <c r="J17" t="n">
-        <v>160.6044173623287</v>
+        <v>160.6044173623289</v>
       </c>
       <c r="K17" t="n">
-        <v>240.7043892258009</v>
+        <v>240.7043892258012</v>
       </c>
       <c r="L17" t="n">
-        <v>298.6150793726646</v>
+        <v>298.615079372665</v>
       </c>
       <c r="M17" t="n">
-        <v>332.2668127680584</v>
+        <v>332.2668127680589</v>
       </c>
       <c r="N17" t="n">
-        <v>337.6432371729035</v>
+        <v>337.6432371729039</v>
       </c>
       <c r="O17" t="n">
-        <v>318.8269344273943</v>
+        <v>318.8269344273947</v>
       </c>
       <c r="P17" t="n">
-        <v>272.1114122119568</v>
+        <v>272.1114122119572</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.3443382133601</v>
+        <v>204.3443382133604</v>
       </c>
       <c r="R17" t="n">
-        <v>118.8655766021459</v>
+        <v>118.8655766021461</v>
       </c>
       <c r="S17" t="n">
-        <v>43.12020101202157</v>
+        <v>43.12020101202163</v>
       </c>
       <c r="T17" t="n">
-        <v>8.28343082523859</v>
+        <v>8.2834308252386</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1513819454069872</v>
+        <v>0.1513819454069874</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.012456018131756</v>
+        <v>1.012456018131757</v>
       </c>
       <c r="H18" t="n">
-        <v>9.778193648798801</v>
+        <v>9.778193648798815</v>
       </c>
       <c r="I18" t="n">
-        <v>34.85868308041353</v>
+        <v>34.85868308041358</v>
       </c>
       <c r="J18" t="n">
-        <v>95.65489073059717</v>
+        <v>95.6548907305973</v>
       </c>
       <c r="K18" t="n">
-        <v>163.4894439454248</v>
+        <v>163.489443945425</v>
       </c>
       <c r="L18" t="n">
-        <v>219.8317332351429</v>
+        <v>219.8317332351432</v>
       </c>
       <c r="M18" t="n">
-        <v>256.533263892419</v>
+        <v>256.5332638924193</v>
       </c>
       <c r="N18" t="n">
-        <v>263.3229360491009</v>
+        <v>263.3229360491012</v>
       </c>
       <c r="O18" t="n">
-        <v>240.8890421736551</v>
+        <v>240.8890421736554</v>
       </c>
       <c r="P18" t="n">
-        <v>193.3346934974579</v>
+        <v>193.3346934974581</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.2391225952045</v>
+        <v>129.2391225952047</v>
       </c>
       <c r="R18" t="n">
-        <v>62.86108505558396</v>
+        <v>62.86108505558404</v>
       </c>
       <c r="S18" t="n">
-        <v>18.80592647714028</v>
+        <v>18.8059264771403</v>
       </c>
       <c r="T18" t="n">
-        <v>4.080908248522295</v>
+        <v>4.0809082485223</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06660894856129976</v>
+        <v>0.06660894856129984</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.848809114999732</v>
+        <v>0.8488091149997331</v>
       </c>
       <c r="H19" t="n">
-        <v>7.546684676997622</v>
+        <v>7.546684676997632</v>
       </c>
       <c r="I19" t="n">
-        <v>25.52600502199195</v>
+        <v>25.52600502199198</v>
       </c>
       <c r="J19" t="n">
-        <v>60.01080443048104</v>
+        <v>60.01080443048112</v>
       </c>
       <c r="K19" t="n">
-        <v>98.61618626996884</v>
+        <v>98.61618626996896</v>
       </c>
       <c r="L19" t="n">
-        <v>126.1947660609602</v>
+        <v>126.1947660609603</v>
       </c>
       <c r="M19" t="n">
-        <v>133.054686999458</v>
+        <v>133.0546869994581</v>
       </c>
       <c r="N19" t="n">
-        <v>129.8909439344591</v>
+        <v>129.8909439344592</v>
       </c>
       <c r="O19" t="n">
-        <v>119.9753101819622</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P19" t="n">
-        <v>102.6596042359675</v>
+        <v>102.6596042359677</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.07618871147756</v>
+        <v>71.07618871147766</v>
       </c>
       <c r="R19" t="n">
-        <v>38.16554438898794</v>
+        <v>38.16554438898799</v>
       </c>
       <c r="S19" t="n">
-        <v>14.79242794049532</v>
+        <v>14.79242794049534</v>
       </c>
       <c r="T19" t="n">
-        <v>3.626729854998854</v>
+        <v>3.626729854998858</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04629867899998543</v>
+        <v>0.04629867899998549</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.892274317587341</v>
+        <v>1.892274317587344</v>
       </c>
       <c r="H20" t="n">
-        <v>19.37925435499136</v>
+        <v>19.37925435499139</v>
       </c>
       <c r="I20" t="n">
-        <v>72.95190562878604</v>
+        <v>72.95190562878614</v>
       </c>
       <c r="J20" t="n">
-        <v>160.6044173623287</v>
+        <v>160.6044173623289</v>
       </c>
       <c r="K20" t="n">
-        <v>240.7043892258009</v>
+        <v>240.7043892258012</v>
       </c>
       <c r="L20" t="n">
-        <v>298.6150793726646</v>
+        <v>298.615079372665</v>
       </c>
       <c r="M20" t="n">
-        <v>332.2668127680584</v>
+        <v>332.2668127680589</v>
       </c>
       <c r="N20" t="n">
-        <v>337.6432371729035</v>
+        <v>337.6432371729039</v>
       </c>
       <c r="O20" t="n">
-        <v>318.8269344273943</v>
+        <v>318.8269344273947</v>
       </c>
       <c r="P20" t="n">
-        <v>272.1114122119568</v>
+        <v>272.1114122119572</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.3443382133601</v>
+        <v>204.3443382133604</v>
       </c>
       <c r="R20" t="n">
-        <v>118.8655766021459</v>
+        <v>118.8655766021461</v>
       </c>
       <c r="S20" t="n">
-        <v>43.12020101202157</v>
+        <v>43.12020101202163</v>
       </c>
       <c r="T20" t="n">
-        <v>8.28343082523859</v>
+        <v>8.2834308252386</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1513819454069872</v>
+        <v>0.1513819454069874</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.012456018131756</v>
+        <v>1.012456018131757</v>
       </c>
       <c r="H21" t="n">
-        <v>9.778193648798801</v>
+        <v>9.778193648798815</v>
       </c>
       <c r="I21" t="n">
-        <v>34.85868308041353</v>
+        <v>34.85868308041358</v>
       </c>
       <c r="J21" t="n">
-        <v>95.65489073059717</v>
+        <v>95.6548907305973</v>
       </c>
       <c r="K21" t="n">
-        <v>163.4894439454248</v>
+        <v>163.489443945425</v>
       </c>
       <c r="L21" t="n">
-        <v>219.8317332351429</v>
+        <v>219.8317332351432</v>
       </c>
       <c r="M21" t="n">
-        <v>256.533263892419</v>
+        <v>256.5332638924193</v>
       </c>
       <c r="N21" t="n">
-        <v>263.3229360491009</v>
+        <v>263.3229360491012</v>
       </c>
       <c r="O21" t="n">
-        <v>240.8890421736551</v>
+        <v>240.8890421736554</v>
       </c>
       <c r="P21" t="n">
-        <v>193.3346934974579</v>
+        <v>193.3346934974581</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.2391225952045</v>
+        <v>129.2391225952047</v>
       </c>
       <c r="R21" t="n">
-        <v>62.86108505558396</v>
+        <v>62.86108505558404</v>
       </c>
       <c r="S21" t="n">
-        <v>18.80592647714028</v>
+        <v>18.8059264771403</v>
       </c>
       <c r="T21" t="n">
-        <v>4.080908248522295</v>
+        <v>4.0809082485223</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06660894856129976</v>
+        <v>0.06660894856129984</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.848809114999732</v>
+        <v>0.8488091149997331</v>
       </c>
       <c r="H22" t="n">
-        <v>7.546684676997622</v>
+        <v>7.546684676997632</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52600502199195</v>
+        <v>25.52600502199198</v>
       </c>
       <c r="J22" t="n">
-        <v>60.01080443048104</v>
+        <v>60.01080443048112</v>
       </c>
       <c r="K22" t="n">
-        <v>98.61618626996884</v>
+        <v>98.61618626996896</v>
       </c>
       <c r="L22" t="n">
-        <v>126.1947660609602</v>
+        <v>126.1947660609603</v>
       </c>
       <c r="M22" t="n">
-        <v>133.054686999458</v>
+        <v>133.0546869994581</v>
       </c>
       <c r="N22" t="n">
-        <v>129.8909439344591</v>
+        <v>129.8909439344592</v>
       </c>
       <c r="O22" t="n">
-        <v>119.9753101819622</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P22" t="n">
-        <v>102.6596042359675</v>
+        <v>102.6596042359677</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.07618871147756</v>
+        <v>71.07618871147766</v>
       </c>
       <c r="R22" t="n">
-        <v>38.16554438898794</v>
+        <v>38.16554438898799</v>
       </c>
       <c r="S22" t="n">
-        <v>14.79242794049532</v>
+        <v>14.79242794049534</v>
       </c>
       <c r="T22" t="n">
-        <v>3.626729854998854</v>
+        <v>3.626729854998858</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04629867899998543</v>
+        <v>0.04629867899998549</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>115.4138737531528</v>
       </c>
       <c r="K36" t="n">
-        <v>197.2606930954841</v>
+        <v>197.2606930954842</v>
       </c>
       <c r="L36" t="n">
         <v>265.2413453483974</v>
@@ -34383,7 +34383,7 @@
         <v>407.3886201849412</v>
       </c>
       <c r="O44" t="n">
-        <v>384.685521859445</v>
+        <v>384.6855218594455</v>
       </c>
       <c r="P44" t="n">
         <v>328.3201928929414</v>
@@ -34392,7 +34392,7 @@
         <v>246.554791632671</v>
       </c>
       <c r="R44" t="n">
-        <v>143.4190823571508</v>
+        <v>143.4190823571512</v>
       </c>
       <c r="S44" t="n">
         <v>52.02733909161363</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432586</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L2" t="n">
-        <v>10.77088587362579</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907282</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O2" t="n">
-        <v>15.0141623058707</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855995</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.473289392418831</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.6183370381365</v>
+        <v>9.270525416508185</v>
       </c>
       <c r="M3" t="n">
-        <v>9.397206256252977</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O3" t="n">
-        <v>16.42269341674558</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P3" t="n">
         <v>10.00730248430402</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309855</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>6.601146109817527</v>
       </c>
       <c r="L5" t="n">
-        <v>14.24641283816826</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M5" t="n">
         <v>21.05014551947927</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L6" t="n">
         <v>16.17691886905386</v>
@@ -35026,7 +35026,7 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N6" t="n">
-        <v>23.37323303668732</v>
+        <v>16.99711954026111</v>
       </c>
       <c r="O6" t="n">
         <v>19.22635746243337</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.787925067696158</v>
+        <v>6.787925067696172</v>
       </c>
       <c r="L8" t="n">
-        <v>14.47812865154194</v>
+        <v>14.47812865154196</v>
       </c>
       <c r="M8" t="n">
-        <v>21.3079740087149</v>
+        <v>21.30797400871492</v>
       </c>
       <c r="N8" t="n">
-        <v>22.41007633685602</v>
+        <v>22.41007633685604</v>
       </c>
       <c r="O8" t="n">
-        <v>18.97233097084302</v>
+        <v>18.97233097084304</v>
       </c>
       <c r="P8" t="n">
-        <v>10.52940247294131</v>
+        <v>10.52940247294133</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.502976110201125</v>
+        <v>6.502976110201136</v>
       </c>
       <c r="L9" t="n">
-        <v>16.34750130909319</v>
+        <v>9.945263247152791</v>
       </c>
       <c r="M9" t="n">
-        <v>22.25402668103339</v>
+        <v>22.25402668103341</v>
       </c>
       <c r="N9" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691518</v>
       </c>
       <c r="O9" t="n">
-        <v>13.01104164319192</v>
+        <v>19.41327970513238</v>
       </c>
       <c r="P9" t="n">
-        <v>12.4075116354789</v>
+        <v>12.40751163547891</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1002854526796213</v>
+        <v>0.100285452679632</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3903723299035917</v>
+        <v>0.3903723299035988</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9464120692640705</v>
+        <v>0.9464120692640776</v>
       </c>
       <c r="N10" t="n">
-        <v>2.213653919447058</v>
+        <v>2.213653919447065</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K11" t="n">
-        <v>78.2260031407771</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L11" t="n">
         <v>103.1033814881739</v>
@@ -35427,10 +35427,10 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P11" t="n">
-        <v>91.28869553235685</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.64686578433749</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R11" t="n">
         <v>21.25863298380406</v>
@@ -35488,31 +35488,31 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J12" t="n">
-        <v>24.6882622124955</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K12" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L12" t="n">
-        <v>81.59083389768523</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M12" t="n">
-        <v>98.3899184827294</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N12" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>90.9061604835053</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P12" t="n">
-        <v>69.78685138382997</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R12" t="n">
-        <v>6.096263762754475</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.782617097300154</v>
+        <v>7.782617097300157</v>
       </c>
       <c r="K13" t="n">
-        <v>25.73710560614897</v>
+        <v>25.73710560614898</v>
       </c>
       <c r="L13" t="n">
-        <v>37.84341412641244</v>
+        <v>37.84341412641245</v>
       </c>
       <c r="M13" t="n">
-        <v>40.43539333973013</v>
+        <v>40.43539333973014</v>
       </c>
       <c r="N13" t="n">
-        <v>40.76367547751443</v>
+        <v>40.76367547751444</v>
       </c>
       <c r="O13" t="n">
         <v>34.3176329550318</v>
       </c>
       <c r="P13" t="n">
-        <v>26.23580464898427</v>
+        <v>26.23580464898428</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.040054754946549</v>
+        <v>9.040054754946556</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K14" t="n">
-        <v>78.2260031407771</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L14" t="n">
         <v>103.1033814881739</v>
@@ -35664,10 +35664,10 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P14" t="n">
-        <v>91.28869553235685</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.64686578433749</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R14" t="n">
         <v>21.25863298380406</v>
@@ -35725,31 +35725,31 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J15" t="n">
-        <v>24.6882622124955</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K15" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L15" t="n">
-        <v>81.59083389768523</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M15" t="n">
-        <v>98.3899184827294</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N15" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O15" t="n">
-        <v>90.9061604835053</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P15" t="n">
-        <v>69.78685138382997</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q15" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R15" t="n">
-        <v>6.096263762754475</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.782617097300154</v>
+        <v>7.782617097300157</v>
       </c>
       <c r="K16" t="n">
-        <v>25.73710560614897</v>
+        <v>25.73710560614898</v>
       </c>
       <c r="L16" t="n">
-        <v>37.84341412641244</v>
+        <v>37.84341412641245</v>
       </c>
       <c r="M16" t="n">
-        <v>40.43539333973013</v>
+        <v>40.43539333973014</v>
       </c>
       <c r="N16" t="n">
-        <v>40.76367547751443</v>
+        <v>40.76367547751444</v>
       </c>
       <c r="O16" t="n">
         <v>34.3176329550318</v>
       </c>
       <c r="P16" t="n">
-        <v>26.23580464898427</v>
+        <v>26.23580464898428</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.040054754946549</v>
+        <v>9.040054754946556</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>38.40400308482253</v>
+        <v>38.40400308482263</v>
       </c>
       <c r="J17" t="n">
-        <v>131.1844578767422</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K17" t="n">
-        <v>204.9397884309916</v>
+        <v>204.9397884309919</v>
       </c>
       <c r="L17" t="n">
-        <v>260.3030369400416</v>
+        <v>260.303036940042</v>
       </c>
       <c r="M17" t="n">
-        <v>294.8355498686266</v>
+        <v>294.835549868627</v>
       </c>
       <c r="N17" t="n">
-        <v>300.3636143384575</v>
+        <v>300.3636143384579</v>
       </c>
       <c r="O17" t="n">
-        <v>281.4359750713703</v>
+        <v>281.4359750713706</v>
       </c>
       <c r="P17" t="n">
-        <v>234.5360504017255</v>
+        <v>234.5360504017259</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.2196636087621</v>
+        <v>168.2196636087623</v>
       </c>
       <c r="R17" t="n">
-        <v>83.83292670734943</v>
+        <v>83.8329267073496</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.68629633041353</v>
+        <v>18.68629633041358</v>
       </c>
       <c r="J18" t="n">
-        <v>75.04377639726384</v>
+        <v>75.04377639726397</v>
       </c>
       <c r="K18" t="n">
-        <v>141.0902101120915</v>
+        <v>141.0902101120917</v>
       </c>
       <c r="L18" t="n">
-        <v>197.3166465209133</v>
+        <v>197.3166465209136</v>
       </c>
       <c r="M18" t="n">
-        <v>233.436483380091</v>
+        <v>233.4364833800913</v>
       </c>
       <c r="N18" t="n">
-        <v>241.9799078355592</v>
+        <v>241.9799078355595</v>
       </c>
       <c r="O18" t="n">
-        <v>217.7171524514329</v>
+        <v>217.7171524514332</v>
       </c>
       <c r="P18" t="n">
-        <v>171.5638522926292</v>
+        <v>171.5638522926295</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.492084306226</v>
+        <v>106.4920843062262</v>
       </c>
       <c r="R18" t="n">
-        <v>39.18816566143981</v>
+        <v>39.1881656614399</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.37404844657918</v>
+        <v>39.37404844657925</v>
       </c>
       <c r="K19" t="n">
-        <v>77.65153181725684</v>
+        <v>77.65153181725697</v>
       </c>
       <c r="L19" t="n">
-        <v>104.276006165259</v>
+        <v>104.2760061652591</v>
       </c>
       <c r="M19" t="n">
-        <v>110.4792471079722</v>
+        <v>110.4792471079723</v>
       </c>
       <c r="N19" t="n">
-        <v>109.1420429588587</v>
+        <v>109.1420429588589</v>
       </c>
       <c r="O19" t="n">
-        <v>97.47612268353771</v>
+        <v>97.47612268353787</v>
       </c>
       <c r="P19" t="n">
-        <v>80.27880357798105</v>
+        <v>80.27880357798119</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.45662594669261</v>
+        <v>46.45662594669271</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>38.40400308482253</v>
+        <v>38.40400308482263</v>
       </c>
       <c r="J20" t="n">
-        <v>131.1844578767422</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K20" t="n">
-        <v>204.9397884309916</v>
+        <v>204.9397884309919</v>
       </c>
       <c r="L20" t="n">
-        <v>260.3030369400416</v>
+        <v>260.303036940042</v>
       </c>
       <c r="M20" t="n">
-        <v>294.8355498686266</v>
+        <v>294.835549868627</v>
       </c>
       <c r="N20" t="n">
-        <v>300.3636143384575</v>
+        <v>300.3636143384579</v>
       </c>
       <c r="O20" t="n">
-        <v>281.4359750713703</v>
+        <v>281.4359750713706</v>
       </c>
       <c r="P20" t="n">
-        <v>234.5360504017255</v>
+        <v>234.5360504017259</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.2196636087621</v>
+        <v>168.2196636087623</v>
       </c>
       <c r="R20" t="n">
-        <v>83.83292670734943</v>
+        <v>83.8329267073496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.68629633041353</v>
+        <v>18.68629633041358</v>
       </c>
       <c r="J21" t="n">
-        <v>75.04377639726384</v>
+        <v>75.04377639726397</v>
       </c>
       <c r="K21" t="n">
-        <v>141.0902101120915</v>
+        <v>141.0902101120917</v>
       </c>
       <c r="L21" t="n">
-        <v>197.3166465209133</v>
+        <v>197.3166465209136</v>
       </c>
       <c r="M21" t="n">
-        <v>233.436483380091</v>
+        <v>233.4364833800913</v>
       </c>
       <c r="N21" t="n">
-        <v>241.9799078355592</v>
+        <v>241.9799078355595</v>
       </c>
       <c r="O21" t="n">
-        <v>217.7171524514329</v>
+        <v>217.7171524514332</v>
       </c>
       <c r="P21" t="n">
-        <v>171.5638522926292</v>
+        <v>171.5638522926295</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.492084306226</v>
+        <v>106.4920843062262</v>
       </c>
       <c r="R21" t="n">
-        <v>39.18816566143981</v>
+        <v>39.1881656614399</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.37404844657918</v>
+        <v>39.37404844657925</v>
       </c>
       <c r="K22" t="n">
-        <v>77.65153181725684</v>
+        <v>77.65153181725697</v>
       </c>
       <c r="L22" t="n">
-        <v>104.276006165259</v>
+        <v>104.2760061652591</v>
       </c>
       <c r="M22" t="n">
-        <v>110.4792471079722</v>
+        <v>110.4792471079723</v>
       </c>
       <c r="N22" t="n">
-        <v>109.1420429588587</v>
+        <v>109.1420429588589</v>
       </c>
       <c r="O22" t="n">
-        <v>97.47612268353771</v>
+        <v>97.47612268353787</v>
       </c>
       <c r="P22" t="n">
-        <v>80.27880357798105</v>
+        <v>80.27880357798119</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.45662594669261</v>
+        <v>46.45662594669271</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.80275941981945</v>
       </c>
       <c r="K36" t="n">
-        <v>174.8614592621508</v>
+        <v>174.8614592621509</v>
       </c>
       <c r="L36" t="n">
         <v>242.7262586341678</v>
@@ -38031,7 +38031,7 @@
         <v>370.1089973504952</v>
       </c>
       <c r="O44" t="n">
-        <v>347.2945625034209</v>
+        <v>347.2945625034214</v>
       </c>
       <c r="P44" t="n">
         <v>290.7448310827101</v>
@@ -38040,7 +38040,7 @@
         <v>210.4301170280729</v>
       </c>
       <c r="R44" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
